--- a/outputs/RES-test.xlsx
+++ b/outputs/RES-test.xlsx
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5.63</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>20.46</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>20.98</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>13.18</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>13.07</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>20.26</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>17.59</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>11.24</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>15.04</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>22.13</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>25.54</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>25.85</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>25.67</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>35.1</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>43.69</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>44.83</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>43.89</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>43.78</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>41.09</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>43.89</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>47.16</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>53.08</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>19.33</v>
+        <v>55.18</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>61.27</v>
+        <v>58.32</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>69.45</v>
+        <v>62.12</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>21.37</v>
       </c>
       <c r="B30" t="n">
-        <v>99.08</v>
+        <v>69.95999999999999</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
         <v>64.16</v>
       </c>
       <c r="B31" t="n">
-        <v>101.75</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>77.11</v>
       </c>
       <c r="B32" t="n">
-        <v>100.19</v>
+        <v>72.5</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>81.45999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>97.84</v>
+        <v>70.58</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>86.34</v>
       </c>
       <c r="B34" t="n">
-        <v>87.08</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -908,7 +908,7 @@
         <v>88.48</v>
       </c>
       <c r="B35" t="n">
-        <v>83.54000000000001</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -919,7 +919,7 @@
         <v>90.59</v>
       </c>
       <c r="B36" t="n">
-        <v>93.54000000000001</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>93.53</v>
       </c>
       <c r="B37" t="n">
-        <v>107.96</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -941,7 +941,7 @@
         <v>96.08</v>
       </c>
       <c r="B38" t="n">
-        <v>111.25</v>
+        <v>73.77</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -952,7 +952,7 @@
         <v>93.43000000000001</v>
       </c>
       <c r="B39" t="n">
-        <v>107.06</v>
+        <v>78.11</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>101.5</v>
       </c>
       <c r="B40" t="n">
-        <v>102.38</v>
+        <v>85.36</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -974,7 +974,7 @@
         <v>105.07</v>
       </c>
       <c r="B41" t="n">
-        <v>101.89</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>113.37</v>
       </c>
       <c r="B42" t="n">
-        <v>103.88</v>
+        <v>80.33</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>110.63</v>
       </c>
       <c r="B43" t="n">
-        <v>101.22</v>
+        <v>81.03</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -1007,7 +1007,7 @@
         <v>104.78</v>
       </c>
       <c r="B44" t="n">
-        <v>103.13</v>
+        <v>84.65000000000001</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>107.19</v>
       </c>
       <c r="B45" t="n">
-        <v>103.43</v>
+        <v>85.58</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         <v>120.81</v>
       </c>
       <c r="B46" t="n">
-        <v>101.71</v>
+        <v>87.11</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -1040,7 +1040,7 @@
         <v>129.93</v>
       </c>
       <c r="B47" t="n">
-        <v>101.03</v>
+        <v>89.55</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>142.39</v>
       </c>
       <c r="B48" t="n">
-        <v>99.41</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -1062,7 +1062,7 @@
         <v>137.84</v>
       </c>
       <c r="B49" t="n">
-        <v>96.76000000000001</v>
+        <v>90.77</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>129.74</v>
       </c>
       <c r="B50" t="n">
-        <v>96.33</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -1084,7 +1084,7 @@
         <v>117.79</v>
       </c>
       <c r="B51" t="n">
-        <v>94.51000000000001</v>
+        <v>93.45</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -1095,7 +1095,7 @@
         <v>111.48</v>
       </c>
       <c r="B52" t="n">
-        <v>93.20999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -1106,7 +1106,7 @@
         <v>105.02</v>
       </c>
       <c r="B53" t="n">
-        <v>91.65000000000001</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1117,7 +1117,7 @@
         <v>99.98</v>
       </c>
       <c r="B54" t="n">
-        <v>89.7</v>
+        <v>95.51000000000001</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>93.79000000000001</v>
       </c>
       <c r="B55" t="n">
-        <v>89.08</v>
+        <v>93.09</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1139,7 +1139,7 @@
         <v>95.12</v>
       </c>
       <c r="B56" t="n">
-        <v>92.48</v>
+        <v>91.34</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1150,7 +1150,7 @@
         <v>98.56999999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>94.51000000000001</v>
+        <v>89.81</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1161,7 +1161,7 @@
         <v>98.31999999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>94.05</v>
+        <v>90.59</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -1172,7 +1172,7 @@
         <v>100.36</v>
       </c>
       <c r="B59" t="n">
-        <v>93.54000000000001</v>
+        <v>90.81</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -1183,7 +1183,7 @@
         <v>99.78</v>
       </c>
       <c r="B60" t="n">
-        <v>93.72</v>
+        <v>90.16</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1194,7 +1194,7 @@
         <v>97.98</v>
       </c>
       <c r="B61" t="n">
-        <v>94.20999999999999</v>
+        <v>89.56</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1205,7 +1205,7 @@
         <v>96.58</v>
       </c>
       <c r="B62" t="n">
-        <v>93.45999999999999</v>
+        <v>89.95</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>92.09999999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>93.26000000000001</v>
+        <v>91.55</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>88.69</v>
       </c>
       <c r="B64" t="n">
-        <v>93.15000000000001</v>
+        <v>92.62</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1238,7 +1238,7 @@
         <v>87.40000000000001</v>
       </c>
       <c r="B65" t="n">
-        <v>92.67</v>
+        <v>92.47</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>22.9</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>25.84</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>25.61</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>24.57</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>23.78</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>24.56</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>26.6</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>27.74</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>26.03</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>25.18</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>26.73</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>30.23</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>32.06</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>34.23</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>34.28</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>35.08</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>41.85</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>13.52</v>
+        <v>43.74</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>12.61</v>
+        <v>48.77</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>19.81</v>
+        <v>51.29</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>19.01</v>
+        <v>52.81</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>7.77</v>
+        <v>57.03</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>13.79</v>
+        <v>62.03</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>85.93000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>64.14</v>
+        <v>65.06</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>43.82</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -1583,7 +1583,7 @@
         <v>108.62</v>
       </c>
       <c r="B29" t="n">
-        <v>47.86</v>
+        <v>70.48</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -1594,7 +1594,7 @@
         <v>98.62</v>
       </c>
       <c r="B30" t="n">
-        <v>11.4</v>
+        <v>69.43000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -1605,7 +1605,7 @@
         <v>89.89</v>
       </c>
       <c r="B31" t="n">
-        <v>15.8</v>
+        <v>68.03</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -1616,7 +1616,7 @@
         <v>85.08</v>
       </c>
       <c r="B32" t="n">
-        <v>32.65</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
@@ -1627,7 +1627,7 @@
         <v>82.75</v>
       </c>
       <c r="B33" t="n">
-        <v>88.56999999999999</v>
+        <v>74.04000000000001</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
@@ -1638,7 +1638,7 @@
         <v>81.47</v>
       </c>
       <c r="B34" t="n">
-        <v>108.88</v>
+        <v>75</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
@@ -1649,7 +1649,7 @@
         <v>80.7</v>
       </c>
       <c r="B35" t="n">
-        <v>145.97</v>
+        <v>77.06999999999999</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
@@ -1660,7 +1660,7 @@
         <v>80.20999999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>135</v>
+        <v>77.2</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
@@ -1671,7 +1671,7 @@
         <v>79.84999999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>88.37</v>
+        <v>76.69</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
@@ -1682,7 +1682,7 @@
         <v>80</v>
       </c>
       <c r="B38" t="n">
-        <v>86.19</v>
+        <v>76.41</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
@@ -1693,7 +1693,7 @@
         <v>79.93000000000001</v>
       </c>
       <c r="B39" t="n">
-        <v>98.56</v>
+        <v>76.62</v>
       </c>
       <c r="C39" t="n">
         <v>2</v>
@@ -1704,7 +1704,7 @@
         <v>79.67</v>
       </c>
       <c r="B40" t="n">
-        <v>118.49</v>
+        <v>77.19</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
@@ -1715,7 +1715,7 @@
         <v>79.47</v>
       </c>
       <c r="B41" t="n">
-        <v>121.43</v>
+        <v>77.33</v>
       </c>
       <c r="C41" t="n">
         <v>2</v>
@@ -1726,7 +1726,7 @@
         <v>79.3</v>
       </c>
       <c r="B42" t="n">
-        <v>117.36</v>
+        <v>77.25</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
@@ -1737,7 +1737,7 @@
         <v>79.17</v>
       </c>
       <c r="B43" t="n">
-        <v>124</v>
+        <v>77.38</v>
       </c>
       <c r="C43" t="n">
         <v>2</v>
@@ -1748,7 +1748,7 @@
         <v>79.06</v>
       </c>
       <c r="B44" t="n">
-        <v>128.81</v>
+        <v>77.76000000000001</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
@@ -1759,7 +1759,7 @@
         <v>78.95999999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>118.83</v>
+        <v>77.86</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
@@ -1770,7 +1770,7 @@
         <v>78.89</v>
       </c>
       <c r="B46" t="n">
-        <v>115.32</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
@@ -1781,7 +1781,7 @@
         <v>78.81999999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>104.12</v>
+        <v>77.20999999999999</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
@@ -1792,7 +1792,7 @@
         <v>78.76000000000001</v>
       </c>
       <c r="B48" t="n">
-        <v>92.66</v>
+        <v>77.05</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
@@ -1803,7 +1803,7 @@
         <v>78.70999999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>88.61</v>
+        <v>76.92</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
@@ -1814,7 +1814,7 @@
         <v>78.66</v>
       </c>
       <c r="B50" t="n">
-        <v>88.19</v>
+        <v>76.86</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
@@ -1825,7 +1825,7 @@
         <v>78.62</v>
       </c>
       <c r="B51" t="n">
-        <v>88.73</v>
+        <v>76.86</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
@@ -1836,7 +1836,7 @@
         <v>78.59</v>
       </c>
       <c r="B52" t="n">
-        <v>88.42</v>
+        <v>76.72</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
@@ -1847,7 +1847,7 @@
         <v>78.55</v>
       </c>
       <c r="B53" t="n">
-        <v>86.52</v>
+        <v>76.39</v>
       </c>
       <c r="C53" t="n">
         <v>2</v>
@@ -1858,7 +1858,7 @@
         <v>78.53</v>
       </c>
       <c r="B54" t="n">
-        <v>84.55</v>
+        <v>76.13</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
@@ -1869,7 +1869,7 @@
         <v>78.5</v>
       </c>
       <c r="B55" t="n">
-        <v>93.45</v>
+        <v>76.47</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
@@ -1880,7 +1880,7 @@
         <v>78.48</v>
       </c>
       <c r="B56" t="n">
-        <v>99.61</v>
+        <v>76.72</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
@@ -1891,7 +1891,7 @@
         <v>78.45</v>
       </c>
       <c r="B57" t="n">
-        <v>90.38</v>
+        <v>76.59</v>
       </c>
       <c r="C57" t="n">
         <v>2</v>
@@ -1902,7 +1902,7 @@
         <v>78.44</v>
       </c>
       <c r="B58" t="n">
-        <v>86.12</v>
+        <v>76.44</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
@@ -1913,7 +1913,7 @@
         <v>78.42</v>
       </c>
       <c r="B59" t="n">
-        <v>84.44</v>
+        <v>76.23</v>
       </c>
       <c r="C59" t="n">
         <v>2</v>
@@ -1924,7 +1924,7 @@
         <v>78.40000000000001</v>
       </c>
       <c r="B60" t="n">
-        <v>83.56</v>
+        <v>76</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
@@ -1935,7 +1935,7 @@
         <v>78.38</v>
       </c>
       <c r="B61" t="n">
-        <v>84.03</v>
+        <v>75.91</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
@@ -1946,7 +1946,7 @@
         <v>78.36</v>
       </c>
       <c r="B62" t="n">
-        <v>84.02</v>
+        <v>75.87</v>
       </c>
       <c r="C62" t="n">
         <v>2</v>
@@ -1957,7 +1957,7 @@
         <v>78.34</v>
       </c>
       <c r="B63" t="n">
-        <v>83.05</v>
+        <v>75.83</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
@@ -1968,7 +1968,7 @@
         <v>78.31999999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>82.48</v>
+        <v>75.77</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
@@ -1979,7 +1979,7 @@
         <v>78.3</v>
       </c>
       <c r="B65" t="n">
-        <v>82.17</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>8.48</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>26.51</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>22.97</v>
+        <v>54.97</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>72.87</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>89.27</v>
+        <v>83.18000000000001</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>91.42</v>
+        <v>82.97</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>92.56</v>
+        <v>80.73</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>93.52</v>
+        <v>79.75</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>94.16</v>
+        <v>80.38</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>95.36</v>
+        <v>86.61</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>97.48999999999999</v>
+        <v>91.37</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>99.09</v>
+        <v>95.01000000000001</v>
       </c>
       <c r="C24" t="n">
         <v>3</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>100.51</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="C25" t="n">
         <v>3</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>101.28</v>
+        <v>97.16</v>
       </c>
       <c r="C26" t="n">
         <v>3</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>101.69</v>
+        <v>97.73</v>
       </c>
       <c r="C27" t="n">
         <v>3</v>
@@ -2313,7 +2313,7 @@
         <v>67.68000000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>102.24</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
@@ -2324,7 +2324,7 @@
         <v>109.78</v>
       </c>
       <c r="B29" t="n">
-        <v>91.73999999999999</v>
+        <v>86.09</v>
       </c>
       <c r="C29" t="n">
         <v>3</v>
@@ -2335,7 +2335,7 @@
         <v>140.3</v>
       </c>
       <c r="B30" t="n">
-        <v>82.98</v>
+        <v>73.17</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
@@ -2346,7 +2346,7 @@
         <v>149.44</v>
       </c>
       <c r="B31" t="n">
-        <v>80.58</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C31" t="n">
         <v>3</v>
@@ -2357,7 +2357,7 @@
         <v>162.25</v>
       </c>
       <c r="B32" t="n">
-        <v>79.91</v>
+        <v>61.28</v>
       </c>
       <c r="C32" t="n">
         <v>3</v>
@@ -2368,7 +2368,7 @@
         <v>151.53</v>
       </c>
       <c r="B33" t="n">
-        <v>79.88</v>
+        <v>63.98</v>
       </c>
       <c r="C33" t="n">
         <v>3</v>
@@ -2379,7 +2379,7 @@
         <v>143.13</v>
       </c>
       <c r="B34" t="n">
-        <v>79.81</v>
+        <v>61.19</v>
       </c>
       <c r="C34" t="n">
         <v>3</v>
@@ -2390,7 +2390,7 @@
         <v>142.47</v>
       </c>
       <c r="B35" t="n">
-        <v>79.48999999999999</v>
+        <v>56.49</v>
       </c>
       <c r="C35" t="n">
         <v>3</v>
@@ -2401,7 +2401,7 @@
         <v>142.46</v>
       </c>
       <c r="B36" t="n">
-        <v>78.95999999999999</v>
+        <v>54.31</v>
       </c>
       <c r="C36" t="n">
         <v>3</v>
@@ -2412,7 +2412,7 @@
         <v>135.37</v>
       </c>
       <c r="B37" t="n">
-        <v>78.76000000000001</v>
+        <v>54.34</v>
       </c>
       <c r="C37" t="n">
         <v>3</v>
@@ -2423,7 +2423,7 @@
         <v>111.22</v>
       </c>
       <c r="B38" t="n">
-        <v>78.64</v>
+        <v>55.92</v>
       </c>
       <c r="C38" t="n">
         <v>3</v>
@@ -2434,7 +2434,7 @@
         <v>98.97</v>
       </c>
       <c r="B39" t="n">
-        <v>78.62</v>
+        <v>58.09</v>
       </c>
       <c r="C39" t="n">
         <v>3</v>
@@ -2445,7 +2445,7 @@
         <v>89.05</v>
       </c>
       <c r="B40" t="n">
-        <v>78.59999999999999</v>
+        <v>60.38</v>
       </c>
       <c r="C40" t="n">
         <v>3</v>
@@ -2456,7 +2456,7 @@
         <v>84.59</v>
       </c>
       <c r="B41" t="n">
-        <v>78.56999999999999</v>
+        <v>60.69</v>
       </c>
       <c r="C41" t="n">
         <v>3</v>
@@ -2467,7 +2467,7 @@
         <v>82.45999999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>78.56999999999999</v>
+        <v>60.12</v>
       </c>
       <c r="C42" t="n">
         <v>3</v>
@@ -2478,7 +2478,7 @@
         <v>81.27</v>
       </c>
       <c r="B43" t="n">
-        <v>78.56</v>
+        <v>59.41</v>
       </c>
       <c r="C43" t="n">
         <v>3</v>
@@ -2489,7 +2489,7 @@
         <v>80.55</v>
       </c>
       <c r="B44" t="n">
-        <v>78.52</v>
+        <v>59.21</v>
       </c>
       <c r="C44" t="n">
         <v>3</v>
@@ -2500,7 +2500,7 @@
         <v>80.09</v>
       </c>
       <c r="B45" t="n">
-        <v>78.48</v>
+        <v>59.17</v>
       </c>
       <c r="C45" t="n">
         <v>3</v>
@@ -2511,7 +2511,7 @@
         <v>79.77</v>
       </c>
       <c r="B46" t="n">
-        <v>78.45</v>
+        <v>59.16</v>
       </c>
       <c r="C46" t="n">
         <v>3</v>
@@ -2522,7 +2522,7 @@
         <v>79.55</v>
       </c>
       <c r="B47" t="n">
-        <v>78.47</v>
+        <v>53.99</v>
       </c>
       <c r="C47" t="n">
         <v>3</v>
@@ -2533,7 +2533,7 @@
         <v>104.36</v>
       </c>
       <c r="B48" t="n">
-        <v>78.38</v>
+        <v>49.03</v>
       </c>
       <c r="C48" t="n">
         <v>3</v>
@@ -2544,7 +2544,7 @@
         <v>134.39</v>
       </c>
       <c r="B49" t="n">
-        <v>78.31</v>
+        <v>47.99</v>
       </c>
       <c r="C49" t="n">
         <v>3</v>
@@ -2555,7 +2555,7 @@
         <v>112.56</v>
       </c>
       <c r="B50" t="n">
-        <v>78.31</v>
+        <v>48.29</v>
       </c>
       <c r="C50" t="n">
         <v>3</v>
@@ -2566,7 +2566,7 @@
         <v>118.78</v>
       </c>
       <c r="B51" t="n">
-        <v>78.29000000000001</v>
+        <v>48.05</v>
       </c>
       <c r="C51" t="n">
         <v>3</v>
@@ -2577,7 +2577,7 @@
         <v>104.2</v>
       </c>
       <c r="B52" t="n">
-        <v>78.29000000000001</v>
+        <v>44.9</v>
       </c>
       <c r="C52" t="n">
         <v>3</v>
@@ -2588,7 +2588,7 @@
         <v>92.11</v>
       </c>
       <c r="B53" t="n">
-        <v>78.27</v>
+        <v>43.93</v>
       </c>
       <c r="C53" t="n">
         <v>3</v>
@@ -2599,7 +2599,7 @@
         <v>86.14</v>
       </c>
       <c r="B54" t="n">
-        <v>78.26000000000001</v>
+        <v>42.74</v>
       </c>
       <c r="C54" t="n">
         <v>3</v>
@@ -2610,7 +2610,7 @@
         <v>83.31</v>
       </c>
       <c r="B55" t="n">
-        <v>78.26000000000001</v>
+        <v>42.17</v>
       </c>
       <c r="C55" t="n">
         <v>3</v>
@@ -2621,7 +2621,7 @@
         <v>81.79000000000001</v>
       </c>
       <c r="B56" t="n">
-        <v>78.25</v>
+        <v>42.45</v>
       </c>
       <c r="C56" t="n">
         <v>3</v>
@@ -2632,7 +2632,7 @@
         <v>80.90000000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>78.23999999999999</v>
+        <v>43.38</v>
       </c>
       <c r="C57" t="n">
         <v>3</v>
@@ -2643,7 +2643,7 @@
         <v>80.34</v>
       </c>
       <c r="B58" t="n">
-        <v>78.23999999999999</v>
+        <v>44.28</v>
       </c>
       <c r="C58" t="n">
         <v>3</v>
@@ -2654,7 +2654,7 @@
         <v>79.95</v>
       </c>
       <c r="B59" t="n">
-        <v>78.23999999999999</v>
+        <v>43.85</v>
       </c>
       <c r="C59" t="n">
         <v>3</v>
@@ -2665,7 +2665,7 @@
         <v>79.67</v>
       </c>
       <c r="B60" t="n">
-        <v>78.25</v>
+        <v>42.4</v>
       </c>
       <c r="C60" t="n">
         <v>3</v>
@@ -2676,7 +2676,7 @@
         <v>79.47</v>
       </c>
       <c r="B61" t="n">
-        <v>78.25</v>
+        <v>41.74</v>
       </c>
       <c r="C61" t="n">
         <v>3</v>
@@ -2687,7 +2687,7 @@
         <v>79.3</v>
       </c>
       <c r="B62" t="n">
-        <v>78.23999999999999</v>
+        <v>42.26</v>
       </c>
       <c r="C62" t="n">
         <v>3</v>
@@ -2698,7 +2698,7 @@
         <v>79.17</v>
       </c>
       <c r="B63" t="n">
-        <v>78.23999999999999</v>
+        <v>43.44</v>
       </c>
       <c r="C63" t="n">
         <v>3</v>
@@ -2709,7 +2709,7 @@
         <v>79.06</v>
       </c>
       <c r="B64" t="n">
-        <v>78.23</v>
+        <v>43.92</v>
       </c>
       <c r="C64" t="n">
         <v>3</v>
@@ -2720,7 +2720,7 @@
         <v>78.97</v>
       </c>
       <c r="B65" t="n">
-        <v>78.23</v>
+        <v>43.91</v>
       </c>
       <c r="C65" t="n">
         <v>3</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.43</v>
+        <v>27.81</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.38</v>
+        <v>27.36</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.44</v>
+        <v>26.06</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.44</v>
+        <v>26.13</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4</v>
+        <v>26.49</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.18</v>
+        <v>27.67</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>29.84</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21</v>
+        <v>30.52</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0.66</v>
+        <v>30.46</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.47</v>
+        <v>30.1</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0.42</v>
+        <v>30.3</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2</v>
+        <v>32.07</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.46</v>
+        <v>33.19</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.75</v>
+        <v>33.96</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>35.39</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>39.34</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6899999999999999</v>
+        <v>40.24</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0.11</v>
+        <v>40.27</v>
       </c>
       <c r="C19" t="n">
         <v>4</v>
@@ -2966,7 +2966,7 @@
         <v>2.1</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>42.78</v>
       </c>
       <c r="C20" t="n">
         <v>4</v>
@@ -2977,7 +2977,7 @@
         <v>58.05</v>
       </c>
       <c r="B21" t="n">
-        <v>2.21</v>
+        <v>45.31</v>
       </c>
       <c r="C21" t="n">
         <v>4</v>
@@ -2988,7 +2988,7 @@
         <v>73.90000000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>20.26</v>
+        <v>48.5</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
@@ -2999,7 +2999,7 @@
         <v>88.68000000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>76.11</v>
+        <v>51.33</v>
       </c>
       <c r="C23" t="n">
         <v>4</v>
@@ -3010,7 +3010,7 @@
         <v>100.73</v>
       </c>
       <c r="B24" t="n">
-        <v>77.68000000000001</v>
+        <v>53.04</v>
       </c>
       <c r="C24" t="n">
         <v>4</v>
@@ -3021,7 +3021,7 @@
         <v>104.95</v>
       </c>
       <c r="B25" t="n">
-        <v>53.21</v>
+        <v>50.86</v>
       </c>
       <c r="C25" t="n">
         <v>4</v>
@@ -3032,7 +3032,7 @@
         <v>104.82</v>
       </c>
       <c r="B26" t="n">
-        <v>45.96</v>
+        <v>49.7</v>
       </c>
       <c r="C26" t="n">
         <v>4</v>
@@ -3043,7 +3043,7 @@
         <v>103.02</v>
       </c>
       <c r="B27" t="n">
-        <v>81.72</v>
+        <v>50.33</v>
       </c>
       <c r="C27" t="n">
         <v>4</v>
@@ -3054,7 +3054,7 @@
         <v>96.51000000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>94.51000000000001</v>
+        <v>51.79</v>
       </c>
       <c r="C28" t="n">
         <v>4</v>
@@ -3065,7 +3065,7 @@
         <v>93.54000000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>99.45</v>
+        <v>52.93</v>
       </c>
       <c r="C29" t="n">
         <v>4</v>
@@ -3076,7 +3076,7 @@
         <v>93.33</v>
       </c>
       <c r="B30" t="n">
-        <v>102</v>
+        <v>53.39</v>
       </c>
       <c r="C30" t="n">
         <v>4</v>
@@ -3087,7 +3087,7 @@
         <v>89.98</v>
       </c>
       <c r="B31" t="n">
-        <v>96.69</v>
+        <v>53.58</v>
       </c>
       <c r="C31" t="n">
         <v>4</v>
@@ -3098,7 +3098,7 @@
         <v>86.33</v>
       </c>
       <c r="B32" t="n">
-        <v>94.37</v>
+        <v>53.29</v>
       </c>
       <c r="C32" t="n">
         <v>4</v>
@@ -3109,7 +3109,7 @@
         <v>84.37</v>
       </c>
       <c r="B33" t="n">
-        <v>93.44</v>
+        <v>55.42</v>
       </c>
       <c r="C33" t="n">
         <v>4</v>
@@ -3120,7 +3120,7 @@
         <v>100.76</v>
       </c>
       <c r="B34" t="n">
-        <v>95.12</v>
+        <v>54.24</v>
       </c>
       <c r="C34" t="n">
         <v>4</v>
@@ -3131,7 +3131,7 @@
         <v>110.9</v>
       </c>
       <c r="B35" t="n">
-        <v>96.36</v>
+        <v>53.5</v>
       </c>
       <c r="C35" t="n">
         <v>4</v>
@@ -3142,7 +3142,7 @@
         <v>106.1</v>
       </c>
       <c r="B36" t="n">
-        <v>100.11</v>
+        <v>53.15</v>
       </c>
       <c r="C36" t="n">
         <v>4</v>
@@ -3153,7 +3153,7 @@
         <v>104.85</v>
       </c>
       <c r="B37" t="n">
-        <v>106.81</v>
+        <v>53.17</v>
       </c>
       <c r="C37" t="n">
         <v>4</v>
@@ -3164,7 +3164,7 @@
         <v>98.86</v>
       </c>
       <c r="B38" t="n">
-        <v>112.95</v>
+        <v>54.11</v>
       </c>
       <c r="C38" t="n">
         <v>4</v>
@@ -3175,7 +3175,7 @@
         <v>100.27</v>
       </c>
       <c r="B39" t="n">
-        <v>109.27</v>
+        <v>54.6</v>
       </c>
       <c r="C39" t="n">
         <v>4</v>
@@ -3186,7 +3186,7 @@
         <v>110.47</v>
       </c>
       <c r="B40" t="n">
-        <v>109.03</v>
+        <v>56.19</v>
       </c>
       <c r="C40" t="n">
         <v>4</v>
@@ -3197,7 +3197,7 @@
         <v>109.56</v>
       </c>
       <c r="B41" t="n">
-        <v>111.93</v>
+        <v>57.88</v>
       </c>
       <c r="C41" t="n">
         <v>4</v>
@@ -3208,7 +3208,7 @@
         <v>103.58</v>
       </c>
       <c r="B42" t="n">
-        <v>121.18</v>
+        <v>58.04</v>
       </c>
       <c r="C42" t="n">
         <v>4</v>
@@ -3219,7 +3219,7 @@
         <v>101.72</v>
       </c>
       <c r="B43" t="n">
-        <v>121.03</v>
+        <v>57.63</v>
       </c>
       <c r="C43" t="n">
         <v>4</v>
@@ -3230,7 +3230,7 @@
         <v>96.08</v>
       </c>
       <c r="B44" t="n">
-        <v>103.83</v>
+        <v>57.47</v>
       </c>
       <c r="C44" t="n">
         <v>4</v>
@@ -3241,7 +3241,7 @@
         <v>94.56</v>
       </c>
       <c r="B45" t="n">
-        <v>96.25</v>
+        <v>56.95</v>
       </c>
       <c r="C45" t="n">
         <v>4</v>
@@ -3252,7 +3252,7 @@
         <v>91.28</v>
       </c>
       <c r="B46" t="n">
-        <v>105.3</v>
+        <v>58.05</v>
       </c>
       <c r="C46" t="n">
         <v>4</v>
@@ -3263,7 +3263,7 @@
         <v>89.31999999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>105.03</v>
+        <v>58.45</v>
       </c>
       <c r="C47" t="n">
         <v>4</v>
@@ -3274,7 +3274,7 @@
         <v>88.56999999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>96.27</v>
+        <v>57.64</v>
       </c>
       <c r="C48" t="n">
         <v>4</v>
@@ -3285,7 +3285,7 @@
         <v>86.55</v>
       </c>
       <c r="B49" t="n">
-        <v>87.76000000000001</v>
+        <v>57.02</v>
       </c>
       <c r="C49" t="n">
         <v>4</v>
@@ -3296,7 +3296,7 @@
         <v>105.46</v>
       </c>
       <c r="B50" t="n">
-        <v>85.73</v>
+        <v>57.44</v>
       </c>
       <c r="C50" t="n">
         <v>4</v>
@@ -3307,7 +3307,7 @@
         <v>105.51</v>
       </c>
       <c r="B51" t="n">
-        <v>90.48999999999999</v>
+        <v>59.26</v>
       </c>
       <c r="C51" t="n">
         <v>4</v>
@@ -3318,7 +3318,7 @@
         <v>105.92</v>
       </c>
       <c r="B52" t="n">
-        <v>88.14</v>
+        <v>58.53</v>
       </c>
       <c r="C52" t="n">
         <v>4</v>
@@ -3329,7 +3329,7 @@
         <v>112</v>
       </c>
       <c r="B53" t="n">
-        <v>85.53</v>
+        <v>58.81</v>
       </c>
       <c r="C53" t="n">
         <v>4</v>
@@ -3340,7 +3340,7 @@
         <v>112.69</v>
       </c>
       <c r="B54" t="n">
-        <v>72.48</v>
+        <v>58.81</v>
       </c>
       <c r="C54" t="n">
         <v>4</v>
@@ -3351,7 +3351,7 @@
         <v>112.58</v>
       </c>
       <c r="B55" t="n">
-        <v>76.45999999999999</v>
+        <v>58.12</v>
       </c>
       <c r="C55" t="n">
         <v>4</v>
@@ -3362,7 +3362,7 @@
         <v>110.06</v>
       </c>
       <c r="B56" t="n">
-        <v>102.79</v>
+        <v>58.71</v>
       </c>
       <c r="C56" t="n">
         <v>4</v>
@@ -3373,7 +3373,7 @@
         <v>106.07</v>
       </c>
       <c r="B57" t="n">
-        <v>118.09</v>
+        <v>59.51</v>
       </c>
       <c r="C57" t="n">
         <v>4</v>
@@ -3384,7 +3384,7 @@
         <v>101.67</v>
       </c>
       <c r="B58" t="n">
-        <v>116.34</v>
+        <v>60.47</v>
       </c>
       <c r="C58" t="n">
         <v>4</v>
@@ -3395,7 +3395,7 @@
         <v>100.08</v>
       </c>
       <c r="B59" t="n">
-        <v>136.21</v>
+        <v>62.1</v>
       </c>
       <c r="C59" t="n">
         <v>4</v>
@@ -3406,7 +3406,7 @@
         <v>101.61</v>
       </c>
       <c r="B60" t="n">
-        <v>127.66</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="C60" t="n">
         <v>4</v>
@@ -3417,7 +3417,7 @@
         <v>108.12</v>
       </c>
       <c r="B61" t="n">
-        <v>111.97</v>
+        <v>68.17</v>
       </c>
       <c r="C61" t="n">
         <v>4</v>
@@ -3428,7 +3428,7 @@
         <v>110.75</v>
       </c>
       <c r="B62" t="n">
-        <v>113.44</v>
+        <v>66.44</v>
       </c>
       <c r="C62" t="n">
         <v>4</v>
@@ -3439,7 +3439,7 @@
         <v>110.79</v>
       </c>
       <c r="B63" t="n">
-        <v>111.96</v>
+        <v>64.38</v>
       </c>
       <c r="C63" t="n">
         <v>4</v>
@@ -3450,7 +3450,7 @@
         <v>109</v>
       </c>
       <c r="B64" t="n">
-        <v>115.1</v>
+        <v>65.47</v>
       </c>
       <c r="C64" t="n">
         <v>4</v>
@@ -3461,7 +3461,7 @@
         <v>108.92</v>
       </c>
       <c r="B65" t="n">
-        <v>98.95</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="C65" t="n">
         <v>4</v>
@@ -3472,7 +3472,7 @@
         <v>117.33</v>
       </c>
       <c r="B66" t="n">
-        <v>77.75</v>
+        <v>74.55</v>
       </c>
       <c r="C66" t="n">
         <v>4</v>
@@ -3483,7 +3483,7 @@
         <v>127.45</v>
       </c>
       <c r="B67" t="n">
-        <v>72.89</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="C67" t="n">
         <v>4</v>
@@ -3494,7 +3494,7 @@
         <v>127.4</v>
       </c>
       <c r="B68" t="n">
-        <v>71.66</v>
+        <v>77.48</v>
       </c>
       <c r="C68" t="n">
         <v>4</v>
@@ -3505,7 +3505,7 @@
         <v>119.03</v>
       </c>
       <c r="B69" t="n">
-        <v>69.93000000000001</v>
+        <v>77.58</v>
       </c>
       <c r="C69" t="n">
         <v>4</v>
@@ -3516,7 +3516,7 @@
         <v>108.87</v>
       </c>
       <c r="B70" t="n">
-        <v>68.98</v>
+        <v>77.59</v>
       </c>
       <c r="C70" t="n">
         <v>4</v>
@@ -3527,7 +3527,7 @@
         <v>99.19</v>
       </c>
       <c r="B71" t="n">
-        <v>67.95999999999999</v>
+        <v>77.92</v>
       </c>
       <c r="C71" t="n">
         <v>4</v>
@@ -3538,7 +3538,7 @@
         <v>93.15000000000001</v>
       </c>
       <c r="B72" t="n">
-        <v>68.11</v>
+        <v>79.83</v>
       </c>
       <c r="C72" t="n">
         <v>4</v>
@@ -3549,7 +3549,7 @@
         <v>90.11</v>
       </c>
       <c r="B73" t="n">
-        <v>73.65000000000001</v>
+        <v>81.94</v>
       </c>
       <c r="C73" t="n">
         <v>4</v>
@@ -3560,7 +3560,7 @@
         <v>88.53</v>
       </c>
       <c r="B74" t="n">
-        <v>74.97</v>
+        <v>83.23</v>
       </c>
       <c r="C74" t="n">
         <v>4</v>
@@ -3571,7 +3571,7 @@
         <v>87.75</v>
       </c>
       <c r="B75" t="n">
-        <v>74.14</v>
+        <v>83.91</v>
       </c>
       <c r="C75" t="n">
         <v>4</v>
@@ -3582,7 +3582,7 @@
         <v>89.77</v>
       </c>
       <c r="B76" t="n">
-        <v>75.69</v>
+        <v>83.45</v>
       </c>
       <c r="C76" t="n">
         <v>4</v>
@@ -3593,7 +3593,7 @@
         <v>88.52</v>
       </c>
       <c r="B77" t="n">
-        <v>72.31999999999999</v>
+        <v>80.73999999999999</v>
       </c>
       <c r="C77" t="n">
         <v>4</v>
@@ -3604,7 +3604,7 @@
         <v>85.75</v>
       </c>
       <c r="B78" t="n">
-        <v>71.62</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="C78" t="n">
         <v>4</v>
@@ -3615,7 +3615,7 @@
         <v>83.34999999999999</v>
       </c>
       <c r="B79" t="n">
-        <v>74.90000000000001</v>
+        <v>77.20999999999999</v>
       </c>
       <c r="C79" t="n">
         <v>4</v>
@@ -3626,7 +3626,7 @@
         <v>89.3</v>
       </c>
       <c r="B80" t="n">
-        <v>76.31999999999999</v>
+        <v>76.78</v>
       </c>
       <c r="C80" t="n">
         <v>4</v>
@@ -3637,7 +3637,7 @@
         <v>94.52</v>
       </c>
       <c r="B81" t="n">
-        <v>76.08</v>
+        <v>76.92</v>
       </c>
       <c r="C81" t="n">
         <v>4</v>
@@ -3648,7 +3648,7 @@
         <v>97.81</v>
       </c>
       <c r="B82" t="n">
-        <v>77.38</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C82" t="n">
         <v>4</v>
@@ -3659,7 +3659,7 @@
         <v>96.31999999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>79.84999999999999</v>
+        <v>74.45</v>
       </c>
       <c r="C83" t="n">
         <v>4</v>
@@ -3670,7 +3670,7 @@
         <v>91.5</v>
       </c>
       <c r="B84" t="n">
-        <v>83.23999999999999</v>
+        <v>72.56</v>
       </c>
       <c r="C84" t="n">
         <v>4</v>
@@ -3681,7 +3681,7 @@
         <v>88.20999999999999</v>
       </c>
       <c r="B85" t="n">
-        <v>85.18000000000001</v>
+        <v>71.86</v>
       </c>
       <c r="C85" t="n">
         <v>4</v>
@@ -3692,7 +3692,7 @@
         <v>85.94</v>
       </c>
       <c r="B86" t="n">
-        <v>85.16</v>
+        <v>71.84</v>
       </c>
       <c r="C86" t="n">
         <v>4</v>
@@ -3703,7 +3703,7 @@
         <v>83.79000000000001</v>
       </c>
       <c r="B87" t="n">
-        <v>84.55</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="C87" t="n">
         <v>4</v>
@@ -3714,7 +3714,7 @@
         <v>83.34</v>
       </c>
       <c r="B88" t="n">
-        <v>84.06</v>
+        <v>72.23</v>
       </c>
       <c r="C88" t="n">
         <v>4</v>
@@ -3725,7 +3725,7 @@
         <v>83.09999999999999</v>
       </c>
       <c r="B89" t="n">
-        <v>84.65000000000001</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="C89" t="n">
         <v>4</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5.51</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>8.35</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>12.34</v>
       </c>
       <c r="C13" t="n">
         <v>5</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>15.19</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>16.59</v>
       </c>
       <c r="C15" t="n">
         <v>5</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>21.79</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>26.11</v>
       </c>
       <c r="C17" t="n">
         <v>5</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>29.39</v>
       </c>
       <c r="C18" t="n">
         <v>5</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>31.37</v>
       </c>
       <c r="C19" t="n">
         <v>5</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>38.15</v>
       </c>
       <c r="C20" t="n">
         <v>5</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>45.25</v>
       </c>
       <c r="C21" t="n">
         <v>5</v>
@@ -3993,7 +3993,7 @@
         <v>73.22</v>
       </c>
       <c r="B22" t="n">
-        <v>74.39</v>
+        <v>54.41</v>
       </c>
       <c r="C22" t="n">
         <v>5</v>
@@ -4004,7 +4004,7 @@
         <v>119.6</v>
       </c>
       <c r="B23" t="n">
-        <v>83.41</v>
+        <v>59.4</v>
       </c>
       <c r="C23" t="n">
         <v>5</v>
@@ -4015,7 +4015,7 @@
         <v>135.76</v>
       </c>
       <c r="B24" t="n">
-        <v>82.43000000000001</v>
+        <v>65.34</v>
       </c>
       <c r="C24" t="n">
         <v>5</v>
@@ -4026,7 +4026,7 @@
         <v>140.33</v>
       </c>
       <c r="B25" t="n">
-        <v>47.37</v>
+        <v>71.02</v>
       </c>
       <c r="C25" t="n">
         <v>5</v>
@@ -4037,7 +4037,7 @@
         <v>134.57</v>
       </c>
       <c r="B26" t="n">
-        <v>85.20999999999999</v>
+        <v>72.67</v>
       </c>
       <c r="C26" t="n">
         <v>5</v>
@@ -4048,7 +4048,7 @@
         <v>128.5</v>
       </c>
       <c r="B27" t="n">
-        <v>63.07</v>
+        <v>73.64</v>
       </c>
       <c r="C27" t="n">
         <v>5</v>
@@ -4059,7 +4059,7 @@
         <v>118.02</v>
       </c>
       <c r="B28" t="n">
-        <v>32.51</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>5</v>
@@ -4070,7 +4070,7 @@
         <v>112.41</v>
       </c>
       <c r="B29" t="n">
-        <v>92.56</v>
+        <v>78.31</v>
       </c>
       <c r="C29" t="n">
         <v>5</v>
@@ -4081,7 +4081,7 @@
         <v>107.56</v>
       </c>
       <c r="B30" t="n">
-        <v>91.14</v>
+        <v>72.66</v>
       </c>
       <c r="C30" t="n">
         <v>5</v>
@@ -4092,7 +4092,7 @@
         <v>101.82</v>
       </c>
       <c r="B31" t="n">
-        <v>90.15000000000001</v>
+        <v>70.63</v>
       </c>
       <c r="C31" t="n">
         <v>5</v>
@@ -4103,7 +4103,7 @@
         <v>95.98</v>
       </c>
       <c r="B32" t="n">
-        <v>84.02</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="C32" t="n">
         <v>5</v>
@@ -4114,7 +4114,7 @@
         <v>93.68000000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>84.54000000000001</v>
+        <v>63.23</v>
       </c>
       <c r="C33" t="n">
         <v>5</v>
@@ -4125,7 +4125,7 @@
         <v>93.59</v>
       </c>
       <c r="B34" t="n">
-        <v>90.08</v>
+        <v>57.27</v>
       </c>
       <c r="C34" t="n">
         <v>5</v>
@@ -4136,7 +4136,7 @@
         <v>95.51000000000001</v>
       </c>
       <c r="B35" t="n">
-        <v>94.48999999999999</v>
+        <v>51.2</v>
       </c>
       <c r="C35" t="n">
         <v>5</v>
@@ -4147,7 +4147,7 @@
         <v>105.28</v>
       </c>
       <c r="B36" t="n">
-        <v>87.76000000000001</v>
+        <v>50.33</v>
       </c>
       <c r="C36" t="n">
         <v>5</v>
@@ -4158,7 +4158,7 @@
         <v>105.08</v>
       </c>
       <c r="B37" t="n">
-        <v>80.56999999999999</v>
+        <v>49.74</v>
       </c>
       <c r="C37" t="n">
         <v>5</v>
@@ -4169,7 +4169,7 @@
         <v>99.56</v>
       </c>
       <c r="B38" t="n">
-        <v>64.02</v>
+        <v>48.36</v>
       </c>
       <c r="C38" t="n">
         <v>5</v>
@@ -4180,7 +4180,7 @@
         <v>96.12</v>
       </c>
       <c r="B39" t="n">
-        <v>54.17</v>
+        <v>47.79</v>
       </c>
       <c r="C39" t="n">
         <v>5</v>
@@ -4191,7 +4191,7 @@
         <v>101.61</v>
       </c>
       <c r="B40" t="n">
-        <v>44.85</v>
+        <v>47.36</v>
       </c>
       <c r="C40" t="n">
         <v>5</v>
@@ -4202,7 +4202,7 @@
         <v>119.4</v>
       </c>
       <c r="B41" t="n">
-        <v>48.43</v>
+        <v>46.98</v>
       </c>
       <c r="C41" t="n">
         <v>5</v>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5.63</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>20.46</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>20.98</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>13.18</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>13.07</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>20.26</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>17.59</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>11.24</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>15.04</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>22.13</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>25.54</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>25.85</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>25.67</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>35.1</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>43.69</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>44.83</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>43.89</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>43.78</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>41.09</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>43.89</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>47.16</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>53.08</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>19.33</v>
+        <v>55.18</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>61.27</v>
+        <v>58.32</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>69.45</v>
+        <v>62.12</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -4558,7 +4558,7 @@
         <v>21.37</v>
       </c>
       <c r="B30" t="n">
-        <v>99.08</v>
+        <v>69.95999999999999</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -4569,7 +4569,7 @@
         <v>64.16</v>
       </c>
       <c r="B31" t="n">
-        <v>101.75</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -4580,7 +4580,7 @@
         <v>77.11</v>
       </c>
       <c r="B32" t="n">
-        <v>100.19</v>
+        <v>72.5</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -4591,7 +4591,7 @@
         <v>81.45999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>97.84</v>
+        <v>70.58</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -4602,7 +4602,7 @@
         <v>86.34</v>
       </c>
       <c r="B34" t="n">
-        <v>87.08</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -4613,7 +4613,7 @@
         <v>88.48</v>
       </c>
       <c r="B35" t="n">
-        <v>83.54000000000001</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -4624,7 +4624,7 @@
         <v>90.59</v>
       </c>
       <c r="B36" t="n">
-        <v>93.54000000000001</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -4635,7 +4635,7 @@
         <v>93.53</v>
       </c>
       <c r="B37" t="n">
-        <v>107.96</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -4646,7 +4646,7 @@
         <v>96.08</v>
       </c>
       <c r="B38" t="n">
-        <v>111.25</v>
+        <v>73.77</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>93.43000000000001</v>
       </c>
       <c r="B39" t="n">
-        <v>107.06</v>
+        <v>78.11</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -4668,7 +4668,7 @@
         <v>101.5</v>
       </c>
       <c r="B40" t="n">
-        <v>102.38</v>
+        <v>85.36</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -4679,7 +4679,7 @@
         <v>105.07</v>
       </c>
       <c r="B41" t="n">
-        <v>101.89</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -4690,7 +4690,7 @@
         <v>113.37</v>
       </c>
       <c r="B42" t="n">
-        <v>103.88</v>
+        <v>80.33</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -4701,7 +4701,7 @@
         <v>110.63</v>
       </c>
       <c r="B43" t="n">
-        <v>101.22</v>
+        <v>81.03</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -4712,7 +4712,7 @@
         <v>104.78</v>
       </c>
       <c r="B44" t="n">
-        <v>103.13</v>
+        <v>84.65000000000001</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -4723,7 +4723,7 @@
         <v>107.19</v>
       </c>
       <c r="B45" t="n">
-        <v>103.43</v>
+        <v>85.58</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -4734,7 +4734,7 @@
         <v>120.81</v>
       </c>
       <c r="B46" t="n">
-        <v>101.71</v>
+        <v>87.11</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -4745,7 +4745,7 @@
         <v>129.93</v>
       </c>
       <c r="B47" t="n">
-        <v>101.03</v>
+        <v>89.55</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -4756,7 +4756,7 @@
         <v>142.39</v>
       </c>
       <c r="B48" t="n">
-        <v>99.41</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -4767,7 +4767,7 @@
         <v>137.84</v>
       </c>
       <c r="B49" t="n">
-        <v>96.76000000000001</v>
+        <v>90.77</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -4778,7 +4778,7 @@
         <v>129.74</v>
       </c>
       <c r="B50" t="n">
-        <v>96.33</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -4789,7 +4789,7 @@
         <v>117.79</v>
       </c>
       <c r="B51" t="n">
-        <v>94.51000000000001</v>
+        <v>93.45</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -4800,7 +4800,7 @@
         <v>111.48</v>
       </c>
       <c r="B52" t="n">
-        <v>93.20999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -4811,7 +4811,7 @@
         <v>105.02</v>
       </c>
       <c r="B53" t="n">
-        <v>91.65000000000001</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -4822,7 +4822,7 @@
         <v>99.98</v>
       </c>
       <c r="B54" t="n">
-        <v>89.7</v>
+        <v>95.51000000000001</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -4833,7 +4833,7 @@
         <v>93.79000000000001</v>
       </c>
       <c r="B55" t="n">
-        <v>89.08</v>
+        <v>93.09</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -4844,7 +4844,7 @@
         <v>95.12</v>
       </c>
       <c r="B56" t="n">
-        <v>92.48</v>
+        <v>91.34</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -4855,7 +4855,7 @@
         <v>98.56999999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>94.51000000000001</v>
+        <v>89.81</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -4866,7 +4866,7 @@
         <v>98.31999999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>94.05</v>
+        <v>90.59</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -4877,7 +4877,7 @@
         <v>100.36</v>
       </c>
       <c r="B59" t="n">
-        <v>93.54000000000001</v>
+        <v>90.81</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -4888,7 +4888,7 @@
         <v>99.78</v>
       </c>
       <c r="B60" t="n">
-        <v>93.72</v>
+        <v>90.16</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -4899,7 +4899,7 @@
         <v>97.98</v>
       </c>
       <c r="B61" t="n">
-        <v>94.20999999999999</v>
+        <v>89.56</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -4910,7 +4910,7 @@
         <v>96.58</v>
       </c>
       <c r="B62" t="n">
-        <v>93.45999999999999</v>
+        <v>89.95</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -4921,7 +4921,7 @@
         <v>92.09999999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>93.26000000000001</v>
+        <v>91.55</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -4932,7 +4932,7 @@
         <v>88.69</v>
       </c>
       <c r="B64" t="n">
-        <v>93.15000000000001</v>
+        <v>92.62</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -4943,7 +4943,7 @@
         <v>87.40000000000001</v>
       </c>
       <c r="B65" t="n">
-        <v>92.67</v>
+        <v>92.47</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>22.9</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>25.84</v>
       </c>
       <c r="C67" t="n">
         <v>2</v>
@@ -4976,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>25.61</v>
       </c>
       <c r="C68" t="n">
         <v>2</v>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>24.57</v>
       </c>
       <c r="C69" t="n">
         <v>2</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>23.78</v>
       </c>
       <c r="C70" t="n">
         <v>2</v>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>24.56</v>
       </c>
       <c r="C71" t="n">
         <v>2</v>
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>26.6</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>27.74</v>
       </c>
       <c r="C73" t="n">
         <v>2</v>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>26.03</v>
       </c>
       <c r="C74" t="n">
         <v>2</v>
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>25.18</v>
       </c>
       <c r="C75" t="n">
         <v>2</v>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>26.73</v>
       </c>
       <c r="C76" t="n">
         <v>2</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>30.23</v>
       </c>
       <c r="C77" t="n">
         <v>2</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>32.06</v>
       </c>
       <c r="C78" t="n">
         <v>2</v>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>34.23</v>
       </c>
       <c r="C79" t="n">
         <v>2</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>34.28</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="C81" t="n">
         <v>2</v>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>35.08</v>
       </c>
       <c r="C82" t="n">
         <v>2</v>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>41.85</v>
       </c>
       <c r="C83" t="n">
         <v>2</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>13.52</v>
+        <v>43.74</v>
       </c>
       <c r="C84" t="n">
         <v>2</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>12.61</v>
+        <v>48.77</v>
       </c>
       <c r="C85" t="n">
         <v>2</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>19.81</v>
+        <v>51.29</v>
       </c>
       <c r="C86" t="n">
         <v>2</v>
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>19.01</v>
+        <v>52.81</v>
       </c>
       <c r="C87" t="n">
         <v>2</v>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>7.77</v>
+        <v>57.03</v>
       </c>
       <c r="C88" t="n">
         <v>2</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>13.79</v>
+        <v>62.03</v>
       </c>
       <c r="C89" t="n">
         <v>2</v>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>85.93000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="C90" t="n">
         <v>2</v>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>64.14</v>
+        <v>65.06</v>
       </c>
       <c r="C91" t="n">
         <v>2</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>43.82</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="C92" t="n">
         <v>2</v>
@@ -5251,7 +5251,7 @@
         <v>108.62</v>
       </c>
       <c r="B93" t="n">
-        <v>47.86</v>
+        <v>70.48</v>
       </c>
       <c r="C93" t="n">
         <v>2</v>
@@ -5262,7 +5262,7 @@
         <v>98.62</v>
       </c>
       <c r="B94" t="n">
-        <v>11.4</v>
+        <v>69.43000000000001</v>
       </c>
       <c r="C94" t="n">
         <v>2</v>
@@ -5273,7 +5273,7 @@
         <v>89.89</v>
       </c>
       <c r="B95" t="n">
-        <v>15.8</v>
+        <v>68.03</v>
       </c>
       <c r="C95" t="n">
         <v>2</v>
@@ -5284,7 +5284,7 @@
         <v>85.08</v>
       </c>
       <c r="B96" t="n">
-        <v>32.65</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="C96" t="n">
         <v>2</v>
@@ -5295,7 +5295,7 @@
         <v>82.75</v>
       </c>
       <c r="B97" t="n">
-        <v>88.56999999999999</v>
+        <v>74.04000000000001</v>
       </c>
       <c r="C97" t="n">
         <v>2</v>
@@ -5306,7 +5306,7 @@
         <v>81.47</v>
       </c>
       <c r="B98" t="n">
-        <v>108.88</v>
+        <v>75</v>
       </c>
       <c r="C98" t="n">
         <v>2</v>
@@ -5317,7 +5317,7 @@
         <v>80.7</v>
       </c>
       <c r="B99" t="n">
-        <v>145.97</v>
+        <v>77.06999999999999</v>
       </c>
       <c r="C99" t="n">
         <v>2</v>
@@ -5328,7 +5328,7 @@
         <v>80.20999999999999</v>
       </c>
       <c r="B100" t="n">
-        <v>135</v>
+        <v>77.2</v>
       </c>
       <c r="C100" t="n">
         <v>2</v>
@@ -5339,7 +5339,7 @@
         <v>79.84999999999999</v>
       </c>
       <c r="B101" t="n">
-        <v>88.37</v>
+        <v>76.69</v>
       </c>
       <c r="C101" t="n">
         <v>2</v>
@@ -5350,7 +5350,7 @@
         <v>80</v>
       </c>
       <c r="B102" t="n">
-        <v>86.19</v>
+        <v>76.41</v>
       </c>
       <c r="C102" t="n">
         <v>2</v>
@@ -5361,7 +5361,7 @@
         <v>79.93000000000001</v>
       </c>
       <c r="B103" t="n">
-        <v>98.56</v>
+        <v>76.62</v>
       </c>
       <c r="C103" t="n">
         <v>2</v>
@@ -5372,7 +5372,7 @@
         <v>79.67</v>
       </c>
       <c r="B104" t="n">
-        <v>118.49</v>
+        <v>77.19</v>
       </c>
       <c r="C104" t="n">
         <v>2</v>
@@ -5383,7 +5383,7 @@
         <v>79.47</v>
       </c>
       <c r="B105" t="n">
-        <v>121.43</v>
+        <v>77.33</v>
       </c>
       <c r="C105" t="n">
         <v>2</v>
@@ -5394,7 +5394,7 @@
         <v>79.3</v>
       </c>
       <c r="B106" t="n">
-        <v>117.36</v>
+        <v>77.25</v>
       </c>
       <c r="C106" t="n">
         <v>2</v>
@@ -5405,7 +5405,7 @@
         <v>79.17</v>
       </c>
       <c r="B107" t="n">
-        <v>124</v>
+        <v>77.38</v>
       </c>
       <c r="C107" t="n">
         <v>2</v>
@@ -5416,7 +5416,7 @@
         <v>79.06</v>
       </c>
       <c r="B108" t="n">
-        <v>128.81</v>
+        <v>77.76000000000001</v>
       </c>
       <c r="C108" t="n">
         <v>2</v>
@@ -5427,7 +5427,7 @@
         <v>78.95999999999999</v>
       </c>
       <c r="B109" t="n">
-        <v>118.83</v>
+        <v>77.86</v>
       </c>
       <c r="C109" t="n">
         <v>2</v>
@@ -5438,7 +5438,7 @@
         <v>78.89</v>
       </c>
       <c r="B110" t="n">
-        <v>115.32</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="C110" t="n">
         <v>2</v>
@@ -5449,7 +5449,7 @@
         <v>78.81999999999999</v>
       </c>
       <c r="B111" t="n">
-        <v>104.12</v>
+        <v>77.20999999999999</v>
       </c>
       <c r="C111" t="n">
         <v>2</v>
@@ -5460,7 +5460,7 @@
         <v>78.76000000000001</v>
       </c>
       <c r="B112" t="n">
-        <v>92.66</v>
+        <v>77.05</v>
       </c>
       <c r="C112" t="n">
         <v>2</v>
@@ -5471,7 +5471,7 @@
         <v>78.70999999999999</v>
       </c>
       <c r="B113" t="n">
-        <v>88.61</v>
+        <v>76.92</v>
       </c>
       <c r="C113" t="n">
         <v>2</v>
@@ -5482,7 +5482,7 @@
         <v>78.66</v>
       </c>
       <c r="B114" t="n">
-        <v>88.19</v>
+        <v>76.86</v>
       </c>
       <c r="C114" t="n">
         <v>2</v>
@@ -5493,7 +5493,7 @@
         <v>78.62</v>
       </c>
       <c r="B115" t="n">
-        <v>88.73</v>
+        <v>76.86</v>
       </c>
       <c r="C115" t="n">
         <v>2</v>
@@ -5504,7 +5504,7 @@
         <v>78.59</v>
       </c>
       <c r="B116" t="n">
-        <v>88.42</v>
+        <v>76.72</v>
       </c>
       <c r="C116" t="n">
         <v>2</v>
@@ -5515,7 +5515,7 @@
         <v>78.55</v>
       </c>
       <c r="B117" t="n">
-        <v>86.52</v>
+        <v>76.39</v>
       </c>
       <c r="C117" t="n">
         <v>2</v>
@@ -5526,7 +5526,7 @@
         <v>78.53</v>
       </c>
       <c r="B118" t="n">
-        <v>84.55</v>
+        <v>76.13</v>
       </c>
       <c r="C118" t="n">
         <v>2</v>
@@ -5537,7 +5537,7 @@
         <v>78.5</v>
       </c>
       <c r="B119" t="n">
-        <v>93.45</v>
+        <v>76.47</v>
       </c>
       <c r="C119" t="n">
         <v>2</v>
@@ -5548,7 +5548,7 @@
         <v>78.48</v>
       </c>
       <c r="B120" t="n">
-        <v>99.61</v>
+        <v>76.72</v>
       </c>
       <c r="C120" t="n">
         <v>2</v>
@@ -5559,7 +5559,7 @@
         <v>78.45</v>
       </c>
       <c r="B121" t="n">
-        <v>90.38</v>
+        <v>76.59</v>
       </c>
       <c r="C121" t="n">
         <v>2</v>
@@ -5570,7 +5570,7 @@
         <v>78.44</v>
       </c>
       <c r="B122" t="n">
-        <v>86.12</v>
+        <v>76.44</v>
       </c>
       <c r="C122" t="n">
         <v>2</v>
@@ -5581,7 +5581,7 @@
         <v>78.42</v>
       </c>
       <c r="B123" t="n">
-        <v>84.44</v>
+        <v>76.23</v>
       </c>
       <c r="C123" t="n">
         <v>2</v>
@@ -5592,7 +5592,7 @@
         <v>78.40000000000001</v>
       </c>
       <c r="B124" t="n">
-        <v>83.56</v>
+        <v>76</v>
       </c>
       <c r="C124" t="n">
         <v>2</v>
@@ -5603,7 +5603,7 @@
         <v>78.38</v>
       </c>
       <c r="B125" t="n">
-        <v>84.03</v>
+        <v>75.91</v>
       </c>
       <c r="C125" t="n">
         <v>2</v>
@@ -5614,7 +5614,7 @@
         <v>78.36</v>
       </c>
       <c r="B126" t="n">
-        <v>84.02</v>
+        <v>75.87</v>
       </c>
       <c r="C126" t="n">
         <v>2</v>
@@ -5625,7 +5625,7 @@
         <v>78.34</v>
       </c>
       <c r="B127" t="n">
-        <v>83.05</v>
+        <v>75.83</v>
       </c>
       <c r="C127" t="n">
         <v>2</v>
@@ -5636,7 +5636,7 @@
         <v>78.31999999999999</v>
       </c>
       <c r="B128" t="n">
-        <v>82.48</v>
+        <v>75.77</v>
       </c>
       <c r="C128" t="n">
         <v>2</v>
@@ -5647,7 +5647,7 @@
         <v>78.3</v>
       </c>
       <c r="B129" t="n">
-        <v>82.17</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="C129" t="n">
         <v>2</v>
@@ -5779,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>8.48</v>
       </c>
       <c r="C141" t="n">
         <v>3</v>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>26.51</v>
       </c>
       <c r="C142" t="n">
         <v>3</v>
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>22.97</v>
+        <v>54.97</v>
       </c>
       <c r="C143" t="n">
         <v>3</v>
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="B144" t="n">
-        <v>72.87</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C144" t="n">
         <v>3</v>
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>89.27</v>
+        <v>83.18000000000001</v>
       </c>
       <c r="C145" t="n">
         <v>3</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>91.42</v>
+        <v>82.97</v>
       </c>
       <c r="C146" t="n">
         <v>3</v>
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>92.56</v>
+        <v>80.73</v>
       </c>
       <c r="C147" t="n">
         <v>3</v>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>93.52</v>
+        <v>79.75</v>
       </c>
       <c r="C148" t="n">
         <v>3</v>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>94.16</v>
+        <v>80.38</v>
       </c>
       <c r="C149" t="n">
         <v>3</v>
@@ -5878,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>95.36</v>
+        <v>86.61</v>
       </c>
       <c r="C150" t="n">
         <v>3</v>
@@ -5889,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>97.48999999999999</v>
+        <v>91.37</v>
       </c>
       <c r="C151" t="n">
         <v>3</v>
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="B152" t="n">
-        <v>99.09</v>
+        <v>95.01000000000001</v>
       </c>
       <c r="C152" t="n">
         <v>3</v>
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>100.51</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="C153" t="n">
         <v>3</v>
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="B154" t="n">
-        <v>101.28</v>
+        <v>97.16</v>
       </c>
       <c r="C154" t="n">
         <v>3</v>
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>101.69</v>
+        <v>97.73</v>
       </c>
       <c r="C155" t="n">
         <v>3</v>
@@ -5944,7 +5944,7 @@
         <v>67.68000000000001</v>
       </c>
       <c r="B156" t="n">
-        <v>102.24</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C156" t="n">
         <v>3</v>
@@ -5955,7 +5955,7 @@
         <v>109.78</v>
       </c>
       <c r="B157" t="n">
-        <v>91.73999999999999</v>
+        <v>86.09</v>
       </c>
       <c r="C157" t="n">
         <v>3</v>
@@ -5966,7 +5966,7 @@
         <v>140.3</v>
       </c>
       <c r="B158" t="n">
-        <v>82.98</v>
+        <v>73.17</v>
       </c>
       <c r="C158" t="n">
         <v>3</v>
@@ -5977,7 +5977,7 @@
         <v>149.44</v>
       </c>
       <c r="B159" t="n">
-        <v>80.58</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C159" t="n">
         <v>3</v>
@@ -5988,7 +5988,7 @@
         <v>162.25</v>
       </c>
       <c r="B160" t="n">
-        <v>79.91</v>
+        <v>61.28</v>
       </c>
       <c r="C160" t="n">
         <v>3</v>
@@ -5999,7 +5999,7 @@
         <v>151.53</v>
       </c>
       <c r="B161" t="n">
-        <v>79.88</v>
+        <v>63.98</v>
       </c>
       <c r="C161" t="n">
         <v>3</v>
@@ -6010,7 +6010,7 @@
         <v>143.13</v>
       </c>
       <c r="B162" t="n">
-        <v>79.81</v>
+        <v>61.19</v>
       </c>
       <c r="C162" t="n">
         <v>3</v>
@@ -6021,7 +6021,7 @@
         <v>142.47</v>
       </c>
       <c r="B163" t="n">
-        <v>79.48999999999999</v>
+        <v>56.49</v>
       </c>
       <c r="C163" t="n">
         <v>3</v>
@@ -6032,7 +6032,7 @@
         <v>142.46</v>
       </c>
       <c r="B164" t="n">
-        <v>78.95999999999999</v>
+        <v>54.31</v>
       </c>
       <c r="C164" t="n">
         <v>3</v>
@@ -6043,7 +6043,7 @@
         <v>135.37</v>
       </c>
       <c r="B165" t="n">
-        <v>78.76000000000001</v>
+        <v>54.34</v>
       </c>
       <c r="C165" t="n">
         <v>3</v>
@@ -6054,7 +6054,7 @@
         <v>111.22</v>
       </c>
       <c r="B166" t="n">
-        <v>78.64</v>
+        <v>55.92</v>
       </c>
       <c r="C166" t="n">
         <v>3</v>
@@ -6065,7 +6065,7 @@
         <v>98.97</v>
       </c>
       <c r="B167" t="n">
-        <v>78.62</v>
+        <v>58.09</v>
       </c>
       <c r="C167" t="n">
         <v>3</v>
@@ -6076,7 +6076,7 @@
         <v>89.05</v>
       </c>
       <c r="B168" t="n">
-        <v>78.59999999999999</v>
+        <v>60.38</v>
       </c>
       <c r="C168" t="n">
         <v>3</v>
@@ -6087,7 +6087,7 @@
         <v>84.59</v>
       </c>
       <c r="B169" t="n">
-        <v>78.56999999999999</v>
+        <v>60.69</v>
       </c>
       <c r="C169" t="n">
         <v>3</v>
@@ -6098,7 +6098,7 @@
         <v>82.45999999999999</v>
       </c>
       <c r="B170" t="n">
-        <v>78.56999999999999</v>
+        <v>60.12</v>
       </c>
       <c r="C170" t="n">
         <v>3</v>
@@ -6109,7 +6109,7 @@
         <v>81.27</v>
       </c>
       <c r="B171" t="n">
-        <v>78.56</v>
+        <v>59.41</v>
       </c>
       <c r="C171" t="n">
         <v>3</v>
@@ -6120,7 +6120,7 @@
         <v>80.55</v>
       </c>
       <c r="B172" t="n">
-        <v>78.52</v>
+        <v>59.21</v>
       </c>
       <c r="C172" t="n">
         <v>3</v>
@@ -6131,7 +6131,7 @@
         <v>80.09</v>
       </c>
       <c r="B173" t="n">
-        <v>78.48</v>
+        <v>59.17</v>
       </c>
       <c r="C173" t="n">
         <v>3</v>
@@ -6142,7 +6142,7 @@
         <v>79.77</v>
       </c>
       <c r="B174" t="n">
-        <v>78.45</v>
+        <v>59.16</v>
       </c>
       <c r="C174" t="n">
         <v>3</v>
@@ -6153,7 +6153,7 @@
         <v>79.55</v>
       </c>
       <c r="B175" t="n">
-        <v>78.47</v>
+        <v>53.99</v>
       </c>
       <c r="C175" t="n">
         <v>3</v>
@@ -6164,7 +6164,7 @@
         <v>104.36</v>
       </c>
       <c r="B176" t="n">
-        <v>78.38</v>
+        <v>49.03</v>
       </c>
       <c r="C176" t="n">
         <v>3</v>
@@ -6175,7 +6175,7 @@
         <v>134.39</v>
       </c>
       <c r="B177" t="n">
-        <v>78.31</v>
+        <v>47.99</v>
       </c>
       <c r="C177" t="n">
         <v>3</v>
@@ -6186,7 +6186,7 @@
         <v>112.56</v>
       </c>
       <c r="B178" t="n">
-        <v>78.31</v>
+        <v>48.29</v>
       </c>
       <c r="C178" t="n">
         <v>3</v>
@@ -6197,7 +6197,7 @@
         <v>118.78</v>
       </c>
       <c r="B179" t="n">
-        <v>78.29000000000001</v>
+        <v>48.05</v>
       </c>
       <c r="C179" t="n">
         <v>3</v>
@@ -6208,7 +6208,7 @@
         <v>104.2</v>
       </c>
       <c r="B180" t="n">
-        <v>78.29000000000001</v>
+        <v>44.9</v>
       </c>
       <c r="C180" t="n">
         <v>3</v>
@@ -6219,7 +6219,7 @@
         <v>92.11</v>
       </c>
       <c r="B181" t="n">
-        <v>78.27</v>
+        <v>43.93</v>
       </c>
       <c r="C181" t="n">
         <v>3</v>
@@ -6230,7 +6230,7 @@
         <v>86.14</v>
       </c>
       <c r="B182" t="n">
-        <v>78.26000000000001</v>
+        <v>42.74</v>
       </c>
       <c r="C182" t="n">
         <v>3</v>
@@ -6241,7 +6241,7 @@
         <v>83.31</v>
       </c>
       <c r="B183" t="n">
-        <v>78.26000000000001</v>
+        <v>42.17</v>
       </c>
       <c r="C183" t="n">
         <v>3</v>
@@ -6252,7 +6252,7 @@
         <v>81.79000000000001</v>
       </c>
       <c r="B184" t="n">
-        <v>78.25</v>
+        <v>42.45</v>
       </c>
       <c r="C184" t="n">
         <v>3</v>
@@ -6263,7 +6263,7 @@
         <v>80.90000000000001</v>
       </c>
       <c r="B185" t="n">
-        <v>78.23999999999999</v>
+        <v>43.38</v>
       </c>
       <c r="C185" t="n">
         <v>3</v>
@@ -6274,7 +6274,7 @@
         <v>80.34</v>
       </c>
       <c r="B186" t="n">
-        <v>78.23999999999999</v>
+        <v>44.28</v>
       </c>
       <c r="C186" t="n">
         <v>3</v>
@@ -6285,7 +6285,7 @@
         <v>79.95</v>
       </c>
       <c r="B187" t="n">
-        <v>78.23999999999999</v>
+        <v>43.85</v>
       </c>
       <c r="C187" t="n">
         <v>3</v>
@@ -6296,7 +6296,7 @@
         <v>79.67</v>
       </c>
       <c r="B188" t="n">
-        <v>78.25</v>
+        <v>42.4</v>
       </c>
       <c r="C188" t="n">
         <v>3</v>
@@ -6307,7 +6307,7 @@
         <v>79.47</v>
       </c>
       <c r="B189" t="n">
-        <v>78.25</v>
+        <v>41.74</v>
       </c>
       <c r="C189" t="n">
         <v>3</v>
@@ -6318,7 +6318,7 @@
         <v>79.3</v>
       </c>
       <c r="B190" t="n">
-        <v>78.23999999999999</v>
+        <v>42.26</v>
       </c>
       <c r="C190" t="n">
         <v>3</v>
@@ -6329,7 +6329,7 @@
         <v>79.17</v>
       </c>
       <c r="B191" t="n">
-        <v>78.23999999999999</v>
+        <v>43.44</v>
       </c>
       <c r="C191" t="n">
         <v>3</v>
@@ -6340,7 +6340,7 @@
         <v>79.06</v>
       </c>
       <c r="B192" t="n">
-        <v>78.23</v>
+        <v>43.92</v>
       </c>
       <c r="C192" t="n">
         <v>3</v>
@@ -6351,7 +6351,7 @@
         <v>78.97</v>
       </c>
       <c r="B193" t="n">
-        <v>78.23</v>
+        <v>43.91</v>
       </c>
       <c r="C193" t="n">
         <v>3</v>
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="n">
-        <v>0.43</v>
+        <v>27.81</v>
       </c>
       <c r="C194" t="n">
         <v>4</v>
@@ -6373,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="B195" t="n">
-        <v>0.38</v>
+        <v>27.36</v>
       </c>
       <c r="C195" t="n">
         <v>4</v>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="B196" t="n">
-        <v>0.44</v>
+        <v>26.06</v>
       </c>
       <c r="C196" t="n">
         <v>4</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="B197" t="n">
-        <v>0.44</v>
+        <v>26.13</v>
       </c>
       <c r="C197" t="n">
         <v>4</v>
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="B198" t="n">
-        <v>0.4</v>
+        <v>26.49</v>
       </c>
       <c r="C198" t="n">
         <v>4</v>
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="B199" t="n">
-        <v>0.18</v>
+        <v>27.67</v>
       </c>
       <c r="C199" t="n">
         <v>4</v>
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>29.84</v>
       </c>
       <c r="C200" t="n">
         <v>4</v>
@@ -6439,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>0.21</v>
+        <v>30.52</v>
       </c>
       <c r="C201" t="n">
         <v>4</v>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="B202" t="n">
-        <v>0.66</v>
+        <v>30.46</v>
       </c>
       <c r="C202" t="n">
         <v>4</v>
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="B203" t="n">
-        <v>0.47</v>
+        <v>30.1</v>
       </c>
       <c r="C203" t="n">
         <v>4</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="B204" t="n">
-        <v>0.42</v>
+        <v>30.3</v>
       </c>
       <c r="C204" t="n">
         <v>4</v>
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="B205" t="n">
-        <v>0.2</v>
+        <v>32.07</v>
       </c>
       <c r="C205" t="n">
         <v>4</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="B206" t="n">
-        <v>0.46</v>
+        <v>33.19</v>
       </c>
       <c r="C206" t="n">
         <v>4</v>
@@ -6505,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="B207" t="n">
-        <v>0.75</v>
+        <v>33.96</v>
       </c>
       <c r="C207" t="n">
         <v>4</v>
@@ -6516,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>35.39</v>
       </c>
       <c r="C208" t="n">
         <v>4</v>
@@ -6527,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>39.34</v>
       </c>
       <c r="C209" t="n">
         <v>4</v>
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="B210" t="n">
-        <v>0.6899999999999999</v>
+        <v>40.24</v>
       </c>
       <c r="C210" t="n">
         <v>4</v>
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="B211" t="n">
-        <v>0.11</v>
+        <v>40.27</v>
       </c>
       <c r="C211" t="n">
         <v>4</v>
@@ -6560,7 +6560,7 @@
         <v>2.1</v>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>42.78</v>
       </c>
       <c r="C212" t="n">
         <v>4</v>
@@ -6571,7 +6571,7 @@
         <v>58.05</v>
       </c>
       <c r="B213" t="n">
-        <v>2.21</v>
+        <v>45.31</v>
       </c>
       <c r="C213" t="n">
         <v>4</v>
@@ -6582,7 +6582,7 @@
         <v>73.90000000000001</v>
       </c>
       <c r="B214" t="n">
-        <v>20.26</v>
+        <v>48.5</v>
       </c>
       <c r="C214" t="n">
         <v>4</v>
@@ -6593,7 +6593,7 @@
         <v>88.68000000000001</v>
       </c>
       <c r="B215" t="n">
-        <v>76.11</v>
+        <v>51.33</v>
       </c>
       <c r="C215" t="n">
         <v>4</v>
@@ -6604,7 +6604,7 @@
         <v>100.73</v>
       </c>
       <c r="B216" t="n">
-        <v>77.68000000000001</v>
+        <v>53.04</v>
       </c>
       <c r="C216" t="n">
         <v>4</v>
@@ -6615,7 +6615,7 @@
         <v>104.95</v>
       </c>
       <c r="B217" t="n">
-        <v>53.21</v>
+        <v>50.86</v>
       </c>
       <c r="C217" t="n">
         <v>4</v>
@@ -6626,7 +6626,7 @@
         <v>104.82</v>
       </c>
       <c r="B218" t="n">
-        <v>45.96</v>
+        <v>49.7</v>
       </c>
       <c r="C218" t="n">
         <v>4</v>
@@ -6637,7 +6637,7 @@
         <v>103.02</v>
       </c>
       <c r="B219" t="n">
-        <v>81.72</v>
+        <v>50.33</v>
       </c>
       <c r="C219" t="n">
         <v>4</v>
@@ -6648,7 +6648,7 @@
         <v>96.51000000000001</v>
       </c>
       <c r="B220" t="n">
-        <v>94.51000000000001</v>
+        <v>51.79</v>
       </c>
       <c r="C220" t="n">
         <v>4</v>
@@ -6659,7 +6659,7 @@
         <v>93.54000000000001</v>
       </c>
       <c r="B221" t="n">
-        <v>99.45</v>
+        <v>52.93</v>
       </c>
       <c r="C221" t="n">
         <v>4</v>
@@ -6670,7 +6670,7 @@
         <v>93.33</v>
       </c>
       <c r="B222" t="n">
-        <v>102</v>
+        <v>53.39</v>
       </c>
       <c r="C222" t="n">
         <v>4</v>
@@ -6681,7 +6681,7 @@
         <v>89.98</v>
       </c>
       <c r="B223" t="n">
-        <v>96.69</v>
+        <v>53.58</v>
       </c>
       <c r="C223" t="n">
         <v>4</v>
@@ -6692,7 +6692,7 @@
         <v>86.33</v>
       </c>
       <c r="B224" t="n">
-        <v>94.37</v>
+        <v>53.29</v>
       </c>
       <c r="C224" t="n">
         <v>4</v>
@@ -6703,7 +6703,7 @@
         <v>84.37</v>
       </c>
       <c r="B225" t="n">
-        <v>93.44</v>
+        <v>55.42</v>
       </c>
       <c r="C225" t="n">
         <v>4</v>
@@ -6714,7 +6714,7 @@
         <v>100.76</v>
       </c>
       <c r="B226" t="n">
-        <v>95.12</v>
+        <v>54.24</v>
       </c>
       <c r="C226" t="n">
         <v>4</v>
@@ -6725,7 +6725,7 @@
         <v>110.9</v>
       </c>
       <c r="B227" t="n">
-        <v>96.36</v>
+        <v>53.5</v>
       </c>
       <c r="C227" t="n">
         <v>4</v>
@@ -6736,7 +6736,7 @@
         <v>106.1</v>
       </c>
       <c r="B228" t="n">
-        <v>100.11</v>
+        <v>53.15</v>
       </c>
       <c r="C228" t="n">
         <v>4</v>
@@ -6747,7 +6747,7 @@
         <v>104.85</v>
       </c>
       <c r="B229" t="n">
-        <v>106.81</v>
+        <v>53.17</v>
       </c>
       <c r="C229" t="n">
         <v>4</v>
@@ -6758,7 +6758,7 @@
         <v>98.86</v>
       </c>
       <c r="B230" t="n">
-        <v>112.95</v>
+        <v>54.11</v>
       </c>
       <c r="C230" t="n">
         <v>4</v>
@@ -6769,7 +6769,7 @@
         <v>100.27</v>
       </c>
       <c r="B231" t="n">
-        <v>109.27</v>
+        <v>54.6</v>
       </c>
       <c r="C231" t="n">
         <v>4</v>
@@ -6780,7 +6780,7 @@
         <v>110.47</v>
       </c>
       <c r="B232" t="n">
-        <v>109.03</v>
+        <v>56.19</v>
       </c>
       <c r="C232" t="n">
         <v>4</v>
@@ -6791,7 +6791,7 @@
         <v>109.56</v>
       </c>
       <c r="B233" t="n">
-        <v>111.93</v>
+        <v>57.88</v>
       </c>
       <c r="C233" t="n">
         <v>4</v>
@@ -6802,7 +6802,7 @@
         <v>103.58</v>
       </c>
       <c r="B234" t="n">
-        <v>121.18</v>
+        <v>58.04</v>
       </c>
       <c r="C234" t="n">
         <v>4</v>
@@ -6813,7 +6813,7 @@
         <v>101.72</v>
       </c>
       <c r="B235" t="n">
-        <v>121.03</v>
+        <v>57.63</v>
       </c>
       <c r="C235" t="n">
         <v>4</v>
@@ -6824,7 +6824,7 @@
         <v>96.08</v>
       </c>
       <c r="B236" t="n">
-        <v>103.83</v>
+        <v>57.47</v>
       </c>
       <c r="C236" t="n">
         <v>4</v>
@@ -6835,7 +6835,7 @@
         <v>94.56</v>
       </c>
       <c r="B237" t="n">
-        <v>96.25</v>
+        <v>56.95</v>
       </c>
       <c r="C237" t="n">
         <v>4</v>
@@ -6846,7 +6846,7 @@
         <v>91.28</v>
       </c>
       <c r="B238" t="n">
-        <v>105.3</v>
+        <v>58.05</v>
       </c>
       <c r="C238" t="n">
         <v>4</v>
@@ -6857,7 +6857,7 @@
         <v>89.31999999999999</v>
       </c>
       <c r="B239" t="n">
-        <v>105.03</v>
+        <v>58.45</v>
       </c>
       <c r="C239" t="n">
         <v>4</v>
@@ -6868,7 +6868,7 @@
         <v>88.56999999999999</v>
       </c>
       <c r="B240" t="n">
-        <v>96.27</v>
+        <v>57.64</v>
       </c>
       <c r="C240" t="n">
         <v>4</v>
@@ -6879,7 +6879,7 @@
         <v>86.55</v>
       </c>
       <c r="B241" t="n">
-        <v>87.76000000000001</v>
+        <v>57.02</v>
       </c>
       <c r="C241" t="n">
         <v>4</v>
@@ -6890,7 +6890,7 @@
         <v>105.46</v>
       </c>
       <c r="B242" t="n">
-        <v>85.73</v>
+        <v>57.44</v>
       </c>
       <c r="C242" t="n">
         <v>4</v>
@@ -6901,7 +6901,7 @@
         <v>105.51</v>
       </c>
       <c r="B243" t="n">
-        <v>90.48999999999999</v>
+        <v>59.26</v>
       </c>
       <c r="C243" t="n">
         <v>4</v>
@@ -6912,7 +6912,7 @@
         <v>105.92</v>
       </c>
       <c r="B244" t="n">
-        <v>88.14</v>
+        <v>58.53</v>
       </c>
       <c r="C244" t="n">
         <v>4</v>
@@ -6923,7 +6923,7 @@
         <v>112</v>
       </c>
       <c r="B245" t="n">
-        <v>85.53</v>
+        <v>58.81</v>
       </c>
       <c r="C245" t="n">
         <v>4</v>
@@ -6934,7 +6934,7 @@
         <v>112.69</v>
       </c>
       <c r="B246" t="n">
-        <v>72.48</v>
+        <v>58.81</v>
       </c>
       <c r="C246" t="n">
         <v>4</v>
@@ -6945,7 +6945,7 @@
         <v>112.58</v>
       </c>
       <c r="B247" t="n">
-        <v>76.45999999999999</v>
+        <v>58.12</v>
       </c>
       <c r="C247" t="n">
         <v>4</v>
@@ -6956,7 +6956,7 @@
         <v>110.06</v>
       </c>
       <c r="B248" t="n">
-        <v>102.79</v>
+        <v>58.71</v>
       </c>
       <c r="C248" t="n">
         <v>4</v>
@@ -6967,7 +6967,7 @@
         <v>106.07</v>
       </c>
       <c r="B249" t="n">
-        <v>118.09</v>
+        <v>59.51</v>
       </c>
       <c r="C249" t="n">
         <v>4</v>
@@ -6978,7 +6978,7 @@
         <v>101.67</v>
       </c>
       <c r="B250" t="n">
-        <v>116.34</v>
+        <v>60.47</v>
       </c>
       <c r="C250" t="n">
         <v>4</v>
@@ -6989,7 +6989,7 @@
         <v>100.08</v>
       </c>
       <c r="B251" t="n">
-        <v>136.21</v>
+        <v>62.1</v>
       </c>
       <c r="C251" t="n">
         <v>4</v>
@@ -7000,7 +7000,7 @@
         <v>101.61</v>
       </c>
       <c r="B252" t="n">
-        <v>127.66</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="C252" t="n">
         <v>4</v>
@@ -7011,7 +7011,7 @@
         <v>108.12</v>
       </c>
       <c r="B253" t="n">
-        <v>111.97</v>
+        <v>68.17</v>
       </c>
       <c r="C253" t="n">
         <v>4</v>
@@ -7022,7 +7022,7 @@
         <v>110.75</v>
       </c>
       <c r="B254" t="n">
-        <v>113.44</v>
+        <v>66.44</v>
       </c>
       <c r="C254" t="n">
         <v>4</v>
@@ -7033,7 +7033,7 @@
         <v>110.79</v>
       </c>
       <c r="B255" t="n">
-        <v>111.96</v>
+        <v>64.38</v>
       </c>
       <c r="C255" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
         <v>109</v>
       </c>
       <c r="B256" t="n">
-        <v>115.1</v>
+        <v>65.47</v>
       </c>
       <c r="C256" t="n">
         <v>4</v>
@@ -7055,7 +7055,7 @@
         <v>108.92</v>
       </c>
       <c r="B257" t="n">
-        <v>98.95</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="C257" t="n">
         <v>4</v>
@@ -7066,7 +7066,7 @@
         <v>117.33</v>
       </c>
       <c r="B258" t="n">
-        <v>77.75</v>
+        <v>74.55</v>
       </c>
       <c r="C258" t="n">
         <v>4</v>
@@ -7077,7 +7077,7 @@
         <v>127.45</v>
       </c>
       <c r="B259" t="n">
-        <v>72.89</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="C259" t="n">
         <v>4</v>
@@ -7088,7 +7088,7 @@
         <v>127.4</v>
       </c>
       <c r="B260" t="n">
-        <v>71.66</v>
+        <v>77.48</v>
       </c>
       <c r="C260" t="n">
         <v>4</v>
@@ -7099,7 +7099,7 @@
         <v>119.03</v>
       </c>
       <c r="B261" t="n">
-        <v>69.93000000000001</v>
+        <v>77.58</v>
       </c>
       <c r="C261" t="n">
         <v>4</v>
@@ -7110,7 +7110,7 @@
         <v>108.87</v>
       </c>
       <c r="B262" t="n">
-        <v>68.98</v>
+        <v>77.59</v>
       </c>
       <c r="C262" t="n">
         <v>4</v>
@@ -7121,7 +7121,7 @@
         <v>99.19</v>
       </c>
       <c r="B263" t="n">
-        <v>67.95999999999999</v>
+        <v>77.92</v>
       </c>
       <c r="C263" t="n">
         <v>4</v>
@@ -7132,7 +7132,7 @@
         <v>93.15000000000001</v>
       </c>
       <c r="B264" t="n">
-        <v>68.11</v>
+        <v>79.83</v>
       </c>
       <c r="C264" t="n">
         <v>4</v>
@@ -7143,7 +7143,7 @@
         <v>90.11</v>
       </c>
       <c r="B265" t="n">
-        <v>73.65000000000001</v>
+        <v>81.94</v>
       </c>
       <c r="C265" t="n">
         <v>4</v>
@@ -7154,7 +7154,7 @@
         <v>88.53</v>
       </c>
       <c r="B266" t="n">
-        <v>74.97</v>
+        <v>83.23</v>
       </c>
       <c r="C266" t="n">
         <v>4</v>
@@ -7165,7 +7165,7 @@
         <v>87.75</v>
       </c>
       <c r="B267" t="n">
-        <v>74.14</v>
+        <v>83.91</v>
       </c>
       <c r="C267" t="n">
         <v>4</v>
@@ -7176,7 +7176,7 @@
         <v>89.77</v>
       </c>
       <c r="B268" t="n">
-        <v>75.69</v>
+        <v>83.45</v>
       </c>
       <c r="C268" t="n">
         <v>4</v>
@@ -7187,7 +7187,7 @@
         <v>88.52</v>
       </c>
       <c r="B269" t="n">
-        <v>72.31999999999999</v>
+        <v>80.73999999999999</v>
       </c>
       <c r="C269" t="n">
         <v>4</v>
@@ -7198,7 +7198,7 @@
         <v>85.75</v>
       </c>
       <c r="B270" t="n">
-        <v>71.62</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="C270" t="n">
         <v>4</v>
@@ -7209,7 +7209,7 @@
         <v>83.34999999999999</v>
       </c>
       <c r="B271" t="n">
-        <v>74.90000000000001</v>
+        <v>77.20999999999999</v>
       </c>
       <c r="C271" t="n">
         <v>4</v>
@@ -7220,7 +7220,7 @@
         <v>89.3</v>
       </c>
       <c r="B272" t="n">
-        <v>76.31999999999999</v>
+        <v>76.78</v>
       </c>
       <c r="C272" t="n">
         <v>4</v>
@@ -7231,7 +7231,7 @@
         <v>94.52</v>
       </c>
       <c r="B273" t="n">
-        <v>76.08</v>
+        <v>76.92</v>
       </c>
       <c r="C273" t="n">
         <v>4</v>
@@ -7242,7 +7242,7 @@
         <v>97.81</v>
       </c>
       <c r="B274" t="n">
-        <v>77.38</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C274" t="n">
         <v>4</v>
@@ -7253,7 +7253,7 @@
         <v>96.31999999999999</v>
       </c>
       <c r="B275" t="n">
-        <v>79.84999999999999</v>
+        <v>74.45</v>
       </c>
       <c r="C275" t="n">
         <v>4</v>
@@ -7264,7 +7264,7 @@
         <v>91.5</v>
       </c>
       <c r="B276" t="n">
-        <v>83.23999999999999</v>
+        <v>72.56</v>
       </c>
       <c r="C276" t="n">
         <v>4</v>
@@ -7275,7 +7275,7 @@
         <v>88.20999999999999</v>
       </c>
       <c r="B277" t="n">
-        <v>85.18000000000001</v>
+        <v>71.86</v>
       </c>
       <c r="C277" t="n">
         <v>4</v>
@@ -7286,7 +7286,7 @@
         <v>85.94</v>
       </c>
       <c r="B278" t="n">
-        <v>85.16</v>
+        <v>71.84</v>
       </c>
       <c r="C278" t="n">
         <v>4</v>
@@ -7297,7 +7297,7 @@
         <v>83.79000000000001</v>
       </c>
       <c r="B279" t="n">
-        <v>84.55</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="C279" t="n">
         <v>4</v>
@@ -7308,7 +7308,7 @@
         <v>83.34</v>
       </c>
       <c r="B280" t="n">
-        <v>84.06</v>
+        <v>72.23</v>
       </c>
       <c r="C280" t="n">
         <v>4</v>
@@ -7319,7 +7319,7 @@
         <v>83.09999999999999</v>
       </c>
       <c r="B281" t="n">
-        <v>84.65000000000001</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="C281" t="n">
         <v>4</v>
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C289" t="n">
         <v>5</v>
@@ -7418,7 +7418,7 @@
         <v>0</v>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>5.51</v>
       </c>
       <c r="C290" t="n">
         <v>5</v>
@@ -7429,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C291" t="n">
         <v>5</v>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>8.35</v>
       </c>
       <c r="C292" t="n">
         <v>5</v>
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>12.34</v>
       </c>
       <c r="C293" t="n">
         <v>5</v>
@@ -7462,7 +7462,7 @@
         <v>0</v>
       </c>
       <c r="B294" t="n">
-        <v>0</v>
+        <v>15.19</v>
       </c>
       <c r="C294" t="n">
         <v>5</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>16.59</v>
       </c>
       <c r="C295" t="n">
         <v>5</v>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>21.79</v>
       </c>
       <c r="C296" t="n">
         <v>5</v>
@@ -7495,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>26.11</v>
       </c>
       <c r="C297" t="n">
         <v>5</v>
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="B298" t="n">
-        <v>0</v>
+        <v>29.39</v>
       </c>
       <c r="C298" t="n">
         <v>5</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>31.37</v>
       </c>
       <c r="C299" t="n">
         <v>5</v>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>38.15</v>
       </c>
       <c r="C300" t="n">
         <v>5</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>45.25</v>
       </c>
       <c r="C301" t="n">
         <v>5</v>
@@ -7550,7 +7550,7 @@
         <v>73.22</v>
       </c>
       <c r="B302" t="n">
-        <v>74.39</v>
+        <v>54.41</v>
       </c>
       <c r="C302" t="n">
         <v>5</v>
@@ -7561,7 +7561,7 @@
         <v>119.6</v>
       </c>
       <c r="B303" t="n">
-        <v>83.41</v>
+        <v>59.4</v>
       </c>
       <c r="C303" t="n">
         <v>5</v>
@@ -7572,7 +7572,7 @@
         <v>135.76</v>
       </c>
       <c r="B304" t="n">
-        <v>82.43000000000001</v>
+        <v>65.34</v>
       </c>
       <c r="C304" t="n">
         <v>5</v>
@@ -7583,7 +7583,7 @@
         <v>140.33</v>
       </c>
       <c r="B305" t="n">
-        <v>47.37</v>
+        <v>71.02</v>
       </c>
       <c r="C305" t="n">
         <v>5</v>
@@ -7594,7 +7594,7 @@
         <v>134.57</v>
       </c>
       <c r="B306" t="n">
-        <v>85.20999999999999</v>
+        <v>72.67</v>
       </c>
       <c r="C306" t="n">
         <v>5</v>
@@ -7605,7 +7605,7 @@
         <v>128.5</v>
       </c>
       <c r="B307" t="n">
-        <v>63.07</v>
+        <v>73.64</v>
       </c>
       <c r="C307" t="n">
         <v>5</v>
@@ -7616,7 +7616,7 @@
         <v>118.02</v>
       </c>
       <c r="B308" t="n">
-        <v>32.51</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="C308" t="n">
         <v>5</v>
@@ -7627,7 +7627,7 @@
         <v>112.41</v>
       </c>
       <c r="B309" t="n">
-        <v>92.56</v>
+        <v>78.31</v>
       </c>
       <c r="C309" t="n">
         <v>5</v>
@@ -7638,7 +7638,7 @@
         <v>107.56</v>
       </c>
       <c r="B310" t="n">
-        <v>91.14</v>
+        <v>72.66</v>
       </c>
       <c r="C310" t="n">
         <v>5</v>
@@ -7649,7 +7649,7 @@
         <v>101.82</v>
       </c>
       <c r="B311" t="n">
-        <v>90.15000000000001</v>
+        <v>70.63</v>
       </c>
       <c r="C311" t="n">
         <v>5</v>
@@ -7660,7 +7660,7 @@
         <v>95.98</v>
       </c>
       <c r="B312" t="n">
-        <v>84.02</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="C312" t="n">
         <v>5</v>
@@ -7671,7 +7671,7 @@
         <v>93.68000000000001</v>
       </c>
       <c r="B313" t="n">
-        <v>84.54000000000001</v>
+        <v>63.23</v>
       </c>
       <c r="C313" t="n">
         <v>5</v>
@@ -7682,7 +7682,7 @@
         <v>93.59</v>
       </c>
       <c r="B314" t="n">
-        <v>90.08</v>
+        <v>57.27</v>
       </c>
       <c r="C314" t="n">
         <v>5</v>
@@ -7693,7 +7693,7 @@
         <v>95.51000000000001</v>
       </c>
       <c r="B315" t="n">
-        <v>94.48999999999999</v>
+        <v>51.2</v>
       </c>
       <c r="C315" t="n">
         <v>5</v>
@@ -7704,7 +7704,7 @@
         <v>105.28</v>
       </c>
       <c r="B316" t="n">
-        <v>87.76000000000001</v>
+        <v>50.33</v>
       </c>
       <c r="C316" t="n">
         <v>5</v>
@@ -7715,7 +7715,7 @@
         <v>105.08</v>
       </c>
       <c r="B317" t="n">
-        <v>80.56999999999999</v>
+        <v>49.74</v>
       </c>
       <c r="C317" t="n">
         <v>5</v>
@@ -7726,7 +7726,7 @@
         <v>99.56</v>
       </c>
       <c r="B318" t="n">
-        <v>64.02</v>
+        <v>48.36</v>
       </c>
       <c r="C318" t="n">
         <v>5</v>
@@ -7737,7 +7737,7 @@
         <v>96.12</v>
       </c>
       <c r="B319" t="n">
-        <v>54.17</v>
+        <v>47.79</v>
       </c>
       <c r="C319" t="n">
         <v>5</v>
@@ -7748,7 +7748,7 @@
         <v>101.61</v>
       </c>
       <c r="B320" t="n">
-        <v>44.85</v>
+        <v>47.36</v>
       </c>
       <c r="C320" t="n">
         <v>5</v>
@@ -7759,7 +7759,7 @@
         <v>119.4</v>
       </c>
       <c r="B321" t="n">
-        <v>48.43</v>
+        <v>46.98</v>
       </c>
       <c r="C321" t="n">
         <v>5</v>
